--- a/IMED/DPP_Revised/Annex_input.xlsx
+++ b/IMED/DPP_Revised/Annex_input.xlsx
@@ -254,6 +254,74 @@
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/IMED/DPP_Revised/Annex_input.xlsx
+++ b/IMED/DPP_Revised/Annex_input.xlsx
@@ -254,74 +254,6 @@
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -3409,13 +3341,13 @@
         <v>81</v>
       </c>
       <c r="D58" s="33" t="n">
-        <v>9.793781512605042</v>
+        <v>10.25596638655462</v>
       </c>
       <c r="E58" s="33" t="n">
         <v>119</v>
       </c>
       <c r="F58" s="33" t="n">
-        <v>1165.46</v>
+        <v>1220.46</v>
       </c>
       <c r="G58" s="32" t="n"/>
       <c r="H58" s="34" t="n">
@@ -3458,13 +3390,13 @@
         <v>83</v>
       </c>
       <c r="D59" s="33" t="n">
-        <v>208.31</v>
+        <v>234.524</v>
       </c>
       <c r="E59" s="33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59" s="33" t="n">
-        <v>416.6199999999999</v>
+        <v>1172.62</v>
       </c>
       <c r="G59" s="32" t="n"/>
       <c r="H59" s="34" t="n">
@@ -3507,13 +3439,13 @@
         <v>84</v>
       </c>
       <c r="D60" s="33" t="n">
-        <v>166.9374782608696</v>
+        <v>165.9582882882883</v>
       </c>
       <c r="E60" s="33" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F60" s="33" t="n">
-        <v>19197.81</v>
+        <v>18421.37</v>
       </c>
       <c r="G60" s="32" t="n"/>
       <c r="H60" s="34" t="n">
@@ -3556,13 +3488,13 @@
         <v>85</v>
       </c>
       <c r="D61" s="33" t="n">
-        <v>29.92958243412503</v>
+        <v>30.29061847513786</v>
       </c>
       <c r="E61" s="33" t="n">
-        <v>340.114</v>
+        <v>336.214</v>
       </c>
       <c r="F61" s="33" t="n">
-        <v>10179.47</v>
+        <v>10184.13</v>
       </c>
       <c r="G61" s="32" t="n"/>
       <c r="H61" s="34" t="n">
@@ -3752,13 +3684,13 @@
         <v>90</v>
       </c>
       <c r="D65" s="33" t="n">
-        <v>82.10692931349961</v>
+        <v>82.09077546145663</v>
       </c>
       <c r="E65" s="33" t="n">
         <v>261.2379999999999</v>
       </c>
       <c r="F65" s="33" t="n">
-        <v>21449.45</v>
+        <v>21445.23</v>
       </c>
       <c r="G65" s="32" t="n"/>
       <c r="H65" s="34" t="n">
@@ -3899,13 +3831,13 @@
         <v>93</v>
       </c>
       <c r="D68" s="33" t="n">
-        <v>33.63636363636363</v>
+        <v>29.41818181818182</v>
       </c>
       <c r="E68" s="33" t="n">
         <v>55</v>
       </c>
       <c r="F68" s="33" t="n">
-        <v>1850</v>
+        <v>1618</v>
       </c>
       <c r="G68" s="32" t="n"/>
       <c r="H68" s="34" t="n">
@@ -3948,13 +3880,13 @@
         <v>94</v>
       </c>
       <c r="D69" s="33" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E69" s="33" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="33" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G69" s="32" t="n"/>
       <c r="H69" s="34" t="n">

--- a/IMED/DPP_Revised/Annex_input.xlsx
+++ b/IMED/DPP_Revised/Annex_input.xlsx
@@ -254,6 +254,74 @@
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3341,13 +3409,13 @@
         <v>81</v>
       </c>
       <c r="D58" s="33" t="n">
-        <v>10.25596638655462</v>
+        <v>10.30638655462185</v>
       </c>
       <c r="E58" s="33" t="n">
         <v>119</v>
       </c>
       <c r="F58" s="33" t="n">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="G58" s="32" t="n"/>
       <c r="H58" s="34" t="n">

--- a/IMED/DPP_Revised/Annex_input.xlsx
+++ b/IMED/DPP_Revised/Annex_input.xlsx
@@ -254,74 +254,6 @@
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -3507,13 +3439,13 @@
         <v>84</v>
       </c>
       <c r="D60" s="33" t="n">
-        <v>165.909009009009</v>
+        <v>167.5269369369369</v>
       </c>
       <c r="E60" s="33" t="n">
         <v>111</v>
       </c>
       <c r="F60" s="33" t="n">
-        <v>18415.9</v>
+        <v>18595.49</v>
       </c>
       <c r="G60" s="32" t="n"/>
       <c r="H60" s="34" t="n">
@@ -3752,13 +3684,13 @@
         <v>90</v>
       </c>
       <c r="D65" s="33" t="n">
-        <v>82.14111866362532</v>
+        <v>74.87668782700754</v>
       </c>
       <c r="E65" s="33" t="n">
-        <v>261.723</v>
+        <v>261.653</v>
       </c>
       <c r="F65" s="33" t="n">
-        <v>21498.22</v>
+        <v>19591.71</v>
       </c>
       <c r="G65" s="32" t="n"/>
       <c r="H65" s="34" t="n">
@@ -3801,13 +3733,13 @@
         <v>91</v>
       </c>
       <c r="D66" s="33" t="n">
-        <v>20.95571428571429</v>
+        <v>22.97</v>
       </c>
       <c r="E66" s="33" t="n">
         <v>7</v>
       </c>
       <c r="F66" s="33" t="n">
-        <v>146.69</v>
+        <v>160.79</v>
       </c>
       <c r="G66" s="32" t="n"/>
       <c r="H66" s="34" t="n">
@@ -3899,13 +3831,13 @@
         <v>93</v>
       </c>
       <c r="D68" s="33" t="n">
-        <v>29.41818181818182</v>
+        <v>35</v>
       </c>
       <c r="E68" s="33" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F68" s="33" t="n">
-        <v>1618</v>
+        <v>1050</v>
       </c>
       <c r="G68" s="32" t="n"/>
       <c r="H68" s="34" t="n">

--- a/IMED/DPP_Revised/Annex_input.xlsx
+++ b/IMED/DPP_Revised/Annex_input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10428" windowWidth="19428" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10425" windowWidth="19425" xWindow="-105" yWindow="-105"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly_EXP" sheetId="1" state="visible" r:id="rId1"/>
@@ -254,74 +254,6 @@
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -594,28 +526,28 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="37" width="15"/>
-    <col customWidth="1" max="2" min="2" style="1" width="48.109375"/>
-    <col customWidth="1" max="3" min="3" style="37" width="9.109375"/>
-    <col customWidth="1" max="4" min="4" style="37" width="12.109375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="48.140625"/>
+    <col customWidth="1" max="3" min="3" style="37" width="9.140625"/>
+    <col customWidth="1" max="4" min="4" style="37" width="12.140625"/>
     <col customWidth="1" max="5" min="5" style="37" width="12"/>
-    <col customWidth="1" max="7" min="6" style="37" width="14.6640625"/>
-    <col customWidth="1" max="8" min="8" style="37" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="37" width="11.6640625"/>
-    <col customWidth="1" max="10" min="10" style="37" width="12.44140625"/>
-    <col customWidth="1" max="11" min="11" style="37" width="14.5546875"/>
-    <col customWidth="1" max="12" min="12" style="37" width="12.6640625"/>
-    <col customWidth="1" max="13" min="13" style="37" width="15.6640625"/>
-    <col customWidth="1" max="14" min="14" style="37" width="12.6640625"/>
+    <col customWidth="1" max="7" min="6" style="37" width="14.7109375"/>
+    <col customWidth="1" max="8" min="8" style="37" width="12.28515625"/>
+    <col customWidth="1" max="9" min="9" style="37" width="11.7109375"/>
+    <col customWidth="1" max="10" min="10" style="37" width="12.42578125"/>
+    <col customWidth="1" max="11" min="11" style="37" width="14.5703125"/>
+    <col customWidth="1" max="12" min="12" style="37" width="12.7109375"/>
+    <col customWidth="1" max="13" min="13" style="37" width="15.7109375"/>
+    <col customWidth="1" max="14" min="14" style="37" width="12.7109375"/>
     <col customWidth="1" max="15" min="15" style="37" width="17"/>
-    <col customWidth="1" max="16" min="16" style="37" width="11.88671875"/>
-    <col customWidth="1" max="17" min="17" style="37" width="13.44140625"/>
+    <col customWidth="1" max="16" min="16" style="37" width="11.85546875"/>
+    <col customWidth="1" max="17" min="17" style="37" width="13.42578125"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18.75" r="1" s="37">
@@ -3543,7 +3475,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.9" r="61" s="37">
+    <row customHeight="1" ht="27.95" r="61" s="37">
       <c r="A61" s="30" t="n">
         <v>4111307</v>
       </c>
@@ -3752,13 +3684,13 @@
         <v>90</v>
       </c>
       <c r="D65" s="33" t="n">
-        <v>74.87668782700754</v>
+        <v>75.17479256878387</v>
       </c>
       <c r="E65" s="33" t="n">
         <v>261.653</v>
       </c>
       <c r="F65" s="33" t="n">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="G65" s="32" t="n"/>
       <c r="H65" s="34" t="n">
@@ -4148,15 +4080,15 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="37" width="14"/>
-    <col customWidth="1" max="2" min="2" style="1" width="64.6640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="37" width="9.33203125"/>
-    <col customWidth="1" max="4" min="4" style="37" width="13.5546875"/>
-    <col customWidth="1" max="5" min="5" style="37" width="11.44140625"/>
-    <col customWidth="1" max="9" min="6" style="37" width="22.33203125"/>
-    <col customWidth="1" max="11" min="11" style="37" width="18.44140625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="64.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="37" width="9.28515625"/>
+    <col customWidth="1" max="4" min="4" style="37" width="13.5703125"/>
+    <col customWidth="1" max="5" min="5" style="37" width="11.42578125"/>
+    <col customWidth="1" max="9" min="6" style="37" width="22.28515625"/>
+    <col customWidth="1" max="11" min="11" style="37" width="18.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6401,7 +6333,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6419,27 +6351,27 @@
       <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="37" width="20"/>
-    <col customWidth="1" max="2" min="2" style="37" width="59.88671875"/>
-    <col customWidth="1" max="3" min="3" style="2" width="8.5546875"/>
-    <col customWidth="1" max="4" min="4" style="2" width="11.6640625"/>
-    <col customWidth="1" max="5" min="5" style="2" width="9.109375"/>
-    <col customWidth="1" max="6" min="6" style="2" width="13.5546875"/>
-    <col customWidth="1" max="7" min="7" style="2" width="15.44140625"/>
-    <col customWidth="1" max="8" min="8" style="2" width="17.33203125"/>
-    <col customWidth="1" max="9" min="9" style="2" width="12.5546875"/>
-    <col customWidth="1" max="10" min="10" style="2" width="15.44140625"/>
-    <col customWidth="1" max="11" min="11" style="13" width="15.6640625"/>
-    <col customWidth="1" max="12" min="12" style="13" width="19.33203125"/>
-    <col customWidth="1" max="13" min="13" style="13" width="11.88671875"/>
-    <col customWidth="1" max="14" min="14" style="13" width="12.33203125"/>
-    <col customWidth="1" max="15" min="15" style="13" width="11.33203125"/>
-    <col customWidth="1" max="16" min="16" style="13" width="12.33203125"/>
-    <col customWidth="1" max="17" min="17" style="13" width="11.88671875"/>
-    <col customWidth="1" max="18" min="18" style="13" width="12.6640625"/>
-    <col customWidth="1" max="19" min="19" style="13" width="12.109375"/>
+    <col customWidth="1" max="2" min="2" style="37" width="59.85546875"/>
+    <col customWidth="1" max="3" min="3" style="2" width="8.5703125"/>
+    <col customWidth="1" max="4" min="4" style="2" width="11.7109375"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9.140625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="13.5703125"/>
+    <col customWidth="1" max="7" min="7" style="2" width="15.42578125"/>
+    <col customWidth="1" max="8" min="8" style="2" width="17.28515625"/>
+    <col customWidth="1" max="9" min="9" style="2" width="12.5703125"/>
+    <col customWidth="1" max="10" min="10" style="2" width="15.42578125"/>
+    <col customWidth="1" max="11" min="11" style="13" width="15.7109375"/>
+    <col customWidth="1" max="12" min="12" style="13" width="19.28515625"/>
+    <col customWidth="1" max="13" min="13" style="13" width="11.85546875"/>
+    <col customWidth="1" max="14" min="14" style="13" width="12.28515625"/>
+    <col customWidth="1" max="15" min="15" style="13" width="11.28515625"/>
+    <col customWidth="1" max="16" min="16" style="13" width="12.28515625"/>
+    <col customWidth="1" max="17" min="17" style="13" width="11.85546875"/>
+    <col customWidth="1" max="18" min="18" style="13" width="12.7109375"/>
+    <col customWidth="1" max="19" min="19" style="13" width="12.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10092,11 +10024,11 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="37" width="10.44140625"/>
-    <col customWidth="1" max="2" min="2" style="27" width="11.109375"/>
-    <col customWidth="1" max="5" min="3" style="27" width="8.6640625"/>
+    <col customWidth="1" max="1" min="1" style="37" width="10.42578125"/>
+    <col customWidth="1" max="2" min="2" style="27" width="11.140625"/>
+    <col customWidth="1" max="5" min="3" style="27" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10446,10 +10378,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="37" width="91.5546875"/>
-    <col customWidth="1" max="2" min="2" style="37" width="14.6640625"/>
+    <col customWidth="1" max="1" min="1" style="37" width="91.5703125"/>
+    <col customWidth="1" max="2" min="2" style="37" width="14.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
